--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135011.6610156603</v>
+        <v>132530.7411902006</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>0.3772578810500317</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579952</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
-        <v>102.0344359613852</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.26881321893536</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
@@ -1543,10 +1543,10 @@
         <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271169</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292092</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>153.5361517152307</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545851</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>71.01567612742691</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104952</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717757</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>124.5552595038875</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.8365788066873</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>127.6133927729169</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271945</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292102</v>
+        <v>62.01200608292089</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443156</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367017</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>251.1321256560522</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
@@ -1853,7 +1853,7 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
         <v>337.0264424477344</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
         <v>177.099888753183</v>
@@ -1904,10 +1904,10 @@
         <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>295.7644616953398</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249335</v>
+        <v>137.1198840074559</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F19" t="n">
-        <v>133.9254590121753</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>238.1293846710403</v>
+        <v>183.4961803409489</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411913</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>208.0533602654122</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>274.7162491948569</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,22 +2318,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>35.29247858245685</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D25" t="n">
-        <v>137.1198840074553</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330926</v>
+        <v>154.5302192482722</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411913</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958324</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2792,7 +2792,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524144</v>
       </c>
       <c r="D29" t="n">
         <v>307.7079050020904</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958322</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145472</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>119.3005938533746</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>164.0711673124575</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007098</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383245</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052298</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>50.9307527901075</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846432</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482639</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092337</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621593</v>
       </c>
       <c r="I40" t="n">
-        <v>50.95950582245162</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>143.0438109257875</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C41" t="n">
         <v>267.5881715429027</v>
@@ -3746,7 +3746,7 @@
         <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F41" t="n">
         <v>309.1913255136066</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007094</v>
+        <v>11.503041560071</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115153</v>
@@ -3797,16 +3797,16 @@
         <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X41" t="n">
         <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010752</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846433</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482641</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092339</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621595</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>143.0438109257877</v>
+        <v>92.08430510333706</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U43" t="n">
         <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>231.0452163728788</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007086</v>
+        <v>11.503041560071</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383246</v>
       </c>
       <c r="C46" t="n">
-        <v>111.7690391349168</v>
+        <v>69.562100870523</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010752</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846433</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482641</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092325</v>
+        <v>120.6328936716398</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1766.94258496062</v>
+        <v>1870.007671790301</v>
       </c>
       <c r="C11" t="n">
-        <v>1425.172135279932</v>
+        <v>1528.237222109613</v>
       </c>
       <c r="D11" t="n">
-        <v>1094.098503932905</v>
+        <v>1197.163590762586</v>
       </c>
       <c r="E11" t="n">
-        <v>735.5023185943843</v>
+        <v>838.5674054240653</v>
       </c>
       <c r="F11" t="n">
-        <v>351.7084810645003</v>
+        <v>454.7735678941814</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645003</v>
+        <v>66.89318499890062</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3139.44213356631</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="U11" t="n">
-        <v>3139.44213356631</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="V11" t="n">
-        <v>2835.571313482463</v>
+        <v>2938.636400312143</v>
       </c>
       <c r="W11" t="n">
-        <v>2835.571313482463</v>
+        <v>2938.636400312143</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.297622481106</v>
+        <v>2592.362709310787</v>
       </c>
       <c r="Y11" t="n">
-        <v>2126.350357765018</v>
+        <v>2229.415444594699</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5139,7 +5139,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125857</v>
@@ -5148,16 +5148,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>839.4055703909062</v>
+        <v>657.6236111484602</v>
       </c>
       <c r="C13" t="n">
-        <v>697.6614547227229</v>
+        <v>515.879495480277</v>
       </c>
       <c r="D13" t="n">
-        <v>574.7368825701108</v>
+        <v>515.879495480277</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802771</v>
+        <v>515.879495480277</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420904</v>
+        <v>396.1816152420903</v>
       </c>
       <c r="G13" t="n">
-        <v>255.670845876533</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
         <v>712.1345656402571</v>
@@ -5221,7 +5221,7 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
         <v>1913.369902162336</v>
@@ -5233,16 +5233,16 @@
         <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.884554376953</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1194.659451599716</v>
+        <v>967.1670306535527</v>
       </c>
       <c r="X13" t="n">
-        <v>993.8619679614222</v>
+        <v>812.0800087189762</v>
       </c>
       <c r="Y13" t="n">
-        <v>993.8619679614222</v>
+        <v>812.0800087189762</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1538.552971876556</v>
+        <v>1222.405595170596</v>
       </c>
       <c r="C14" t="n">
-        <v>1196.782522195868</v>
+        <v>880.6351454899079</v>
       </c>
       <c r="D14" t="n">
-        <v>1196.782522195868</v>
+        <v>880.6351454899079</v>
       </c>
       <c r="E14" t="n">
-        <v>838.1863368573474</v>
+        <v>522.0389601513874</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3924993274635</v>
+        <v>138.2451226215035</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218357</v>
+        <v>138.2451226215035</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395991</v>
+        <v>3146.820141253116</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.168810929551</v>
+        <v>2920.481731786676</v>
       </c>
       <c r="V14" t="n">
-        <v>2712.297990845704</v>
+        <v>2616.610911702829</v>
       </c>
       <c r="W14" t="n">
-        <v>2386.721402835313</v>
+        <v>2291.034323692439</v>
       </c>
       <c r="X14" t="n">
-        <v>2260.908009397043</v>
+        <v>1944.760632691082</v>
       </c>
       <c r="Y14" t="n">
-        <v>1897.960744680955</v>
+        <v>1581.813367974994</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>569.9038040135844</v>
+        <v>645.8050585070994</v>
       </c>
       <c r="C16" t="n">
-        <v>428.159688345401</v>
+        <v>516.9026415647597</v>
       </c>
       <c r="D16" t="n">
-        <v>305.2351161927888</v>
+        <v>516.9026415647597</v>
       </c>
       <c r="E16" t="n">
-        <v>305.2351161927888</v>
+        <v>396.1816152420903</v>
       </c>
       <c r="F16" t="n">
-        <v>185.5372359546021</v>
+        <v>396.1816152420903</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5372359546021</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
         <v>712.1345656402566</v>
@@ -5446,16 +5446,16 @@
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
@@ -5464,22 +5464,22 @@
         <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991584</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376951</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430788</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535506</v>
+        <v>1194.659451599715</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152568</v>
+        <v>993.8619679614217</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314503</v>
+        <v>800.2614560776153</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.976134084842</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.655317352227</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>941.0313189532733</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>629.884766562826</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F17" t="n">
-        <v>629.884766562826</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156195</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417717</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281943</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219626</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.431905709181</v>
+        <v>2424.486784228659</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.934273941167</v>
+        <v>2108.989152460644</v>
       </c>
     </row>
     <row r="18">
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031474</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235549</v>
+        <v>632.1517731235544</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034449</v>
+        <v>537.8572904034445</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989062</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243101</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
         <v>89.19609340604111</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
         <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817307</v>
+        <v>885.3094166817302</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459976</v>
+        <v>739.1585377459971</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666652</v>
+        <v>1632.378438483215</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1338.0576217506</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>1054.433623351647</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446365</v>
+        <v>743.2870709611998</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>406.9428663793892</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
         <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
-        <v>2723.310842281941</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290992</v>
+        <v>2259.834210107555</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522977</v>
+        <v>1944.33657833954</v>
       </c>
     </row>
     <row r="21">
@@ -5820,16 +5820,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872289</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671189</v>
+        <v>474.8272962671187</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625802</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879838</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604114</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5938,22 +5938,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729439</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062879</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356254</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454049</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096717</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="23">
@@ -5969,52 +5969,52 @@
         <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925384</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.0946095349366</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531262</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>429.6625348018609</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>763.4819084917074</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1214.516121740116</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516338</v>
+        <v>1748.048026412041</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.83747557512</v>
+        <v>2294.826843470823</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2797.79931435016</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3192.573680707338</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859013</v>
       </c>
       <c r="T23" t="n">
         <v>3501.902725451032</v>
@@ -6029,10 +6029,10 @@
         <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.641748681292</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913277</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130995</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138529</v>
+        <v>639.0174115138539</v>
       </c>
       <c r="C25" t="n">
-        <v>544.722928793743</v>
+        <v>544.7229287937439</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528791</v>
+        <v>469.2479895892051</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>395.976596214609</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>323.7283489244956</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634011</v>
+        <v>96.0617317963401</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667905</v>
       </c>
       <c r="M25" t="n">
         <v>983.2044142663394</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762249</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>892.175055072029</v>
+        <v>892.1750550720296</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362958</v>
+        <v>746.0241761362965</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557147</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455613</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
         <v>1054.87963479397</v>
@@ -6236,7 +6236,7 @@
         <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285457</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
         <v>3355.268050164795</v>
@@ -6245,7 +6245,7 @@
         <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6254,19 +6254,19 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698006</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257046</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913847</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415476</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,10 +6388,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,31 +6403,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,52 +6461,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,16 +6619,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,16 +6686,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6707,7 +6707,7 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N32" t="n">
         <v>2852.295579285458</v>
@@ -6719,19 +6719,19 @@
         <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873066</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960301</v>
+        <v>172.7749345960316</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973131</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982159</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="35">
@@ -6917,70 +6917,70 @@
         <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
         <v>894.1397680464977</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7005,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.4050786964423</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C37" t="n">
-        <v>482.1403303423787</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D37" t="n">
-        <v>332.023690930043</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E37" t="n">
-        <v>282.7820319214933</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>234.5635189974263</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.449641246691</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>1176.23853988366</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W37" t="n">
-        <v>886.8213698466993</v>
+        <v>835.3471215411932</v>
       </c>
       <c r="X37" t="n">
-        <v>757.5032535225254</v>
+        <v>706.0290052170193</v>
       </c>
       <c r="Y37" t="n">
-        <v>635.3821089528386</v>
+        <v>583.9078606473325</v>
       </c>
     </row>
     <row r="38">
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746128</v>
@@ -7214,10 +7214,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.4050786964424</v>
+        <v>402.259395817093</v>
       </c>
       <c r="C40" t="n">
-        <v>482.1403303423789</v>
+        <v>331.9946474630294</v>
       </c>
       <c r="D40" t="n">
-        <v>430.6951255038866</v>
+        <v>280.549442624537</v>
       </c>
       <c r="E40" t="n">
-        <v>381.4534664953369</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>333.23495357127</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G40" t="n">
-        <v>264.2035515198323</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H40" t="n">
-        <v>117.9863647376901</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7357,25 +7357,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1692.975392941185</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U40" t="n">
-        <v>1233.58015894186</v>
+        <v>1280.777345210198</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.567105309816</v>
+        <v>1026.092857004311</v>
       </c>
       <c r="W40" t="n">
-        <v>886.8213698466993</v>
+        <v>736.6756869673503</v>
       </c>
       <c r="X40" t="n">
-        <v>757.5032535225255</v>
+        <v>607.3575706431762</v>
       </c>
       <c r="Y40" t="n">
-        <v>635.3821089528387</v>
+        <v>485.2364260734894</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
@@ -7430,22 +7430,22 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049858</v>
@@ -7454,7 +7454,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228008</v>
@@ -7494,19 +7494,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.6022649647795</v>
+        <v>500.9308303909364</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368725</v>
+        <v>331.9946474630295</v>
       </c>
       <c r="D43" t="n">
-        <v>379.2208771983802</v>
+        <v>280.5494426245371</v>
       </c>
       <c r="E43" t="n">
-        <v>329.9792181898304</v>
+        <v>231.3077836159872</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657634</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1692.975392941185</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1569.880212084554</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1379.448779784041</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V43" t="n">
-        <v>1223.435726151997</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W43" t="n">
-        <v>1032.68999068888</v>
+        <v>1131.361425262724</v>
       </c>
       <c r="X43" t="n">
-        <v>903.3718743647059</v>
+        <v>903.3718743647063</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.2507297950192</v>
+        <v>682.5792952211762</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296688</v>
@@ -7670,28 +7670,28 @@
         <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228008</v>
@@ -7731,19 +7731,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.564101365071</v>
+        <v>651.0765132702845</v>
       </c>
       <c r="C46" t="n">
-        <v>430.6660820368722</v>
+        <v>580.8117649162209</v>
       </c>
       <c r="D46" t="n">
-        <v>379.2208771983799</v>
+        <v>529.3665600777284</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898302</v>
+        <v>480.1249010691786</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657632</v>
+        <v>431.9063881451115</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058689</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758175</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1176.238539883659</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663015</v>
+        <v>985.4928044205419</v>
       </c>
       <c r="X46" t="n">
-        <v>847.3337107649975</v>
+        <v>856.1746880963678</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953107</v>
+        <v>734.053543526681</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430634</v>
+        <v>157.2353108430627</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729013</v>
+        <v>184.4039433729002</v>
       </c>
       <c r="L8" t="n">
-        <v>191.494890938961</v>
+        <v>191.4948909389597</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333074</v>
+        <v>181.085632533306</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830248</v>
+        <v>179.3553748830233</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383997</v>
+        <v>182.8301554383983</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586591</v>
+        <v>190.8908035586579</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266128</v>
+        <v>192.0103836266119</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875976</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372537</v>
+        <v>113.6031223372529</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672279</v>
+        <v>105.9629718672269</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253599</v>
+        <v>104.1013981253587</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677712</v>
+        <v>92.30246558677594</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359741</v>
+        <v>106.882960835973</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798328</v>
+        <v>105.3113487798319</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.821278461546</v>
+        <v>120.8212784615455</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564661</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.199607408523</v>
+        <v>119.1996074085224</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140781</v>
+        <v>108.4284123140775</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530927</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662707</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784346</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>170.7178102063617</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>-4.695133171139787e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665414</v>
+        <v>274.8351763665426</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>287.0017854473909</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665421</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.310359919144</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579948</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>74.96338759110851</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>61.24500284050741</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>45.25335708668001</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>196.6719416727671</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579963</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.2676152010494</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>218.2556945874552</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.0752547881237</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>12.71328173858448</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271178</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>57.70643280170942</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23792,10 +23792,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0713557774102469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,10 +24029,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>57.70643280170975</v>
+        <v>112.3396371318012</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1125295.205865885</v>
+        <v>1125295.205865884</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>941142.4925240652</v>
+        <v>941142.4925240651</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941142.4925240648</v>
+        <v>941142.4925240652</v>
       </c>
     </row>
     <row r="7">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389156.2608905932</v>
+        <v>389156.2608905931</v>
       </c>
       <c r="C2" t="n">
         <v>389156.2608905932</v>
       </c>
       <c r="D2" t="n">
-        <v>389166.8681578247</v>
+        <v>389166.8681578244</v>
       </c>
       <c r="E2" t="n">
-        <v>346531.5004298631</v>
+        <v>346531.500429863</v>
       </c>
       <c r="F2" t="n">
-        <v>346531.5004298631</v>
+        <v>346531.5004298629</v>
       </c>
       <c r="G2" t="n">
+        <v>377402.1400921043</v>
+      </c>
+      <c r="H2" t="n">
         <v>377402.1400921044</v>
       </c>
-      <c r="H2" t="n">
-        <v>377402.1400921043</v>
-      </c>
       <c r="I2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="J2" t="n">
+        <v>389994.8406855349</v>
+      </c>
+      <c r="K2" t="n">
         <v>389994.8406855347</v>
-      </c>
-      <c r="K2" t="n">
-        <v>389994.8406855348</v>
       </c>
       <c r="L2" t="n">
         <v>389994.8406855347</v>
@@ -26353,7 +26353,7 @@
         <v>389994.8406855347</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855344</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552196</v>
+        <v>59764.55367552378</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487432</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983366</v>
+        <v>22821.46782983379</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179686</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487419</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995429</v>
+        <v>421637.9387995423</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.2740136251</v>
+        <v>38804.27401362515</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362502</v>
+        <v>38804.27401362517</v>
       </c>
       <c r="G4" t="n">
         <v>75832.43437506736</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506733</v>
+        <v>75832.43437506734</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451306</v>
+        <v>88045.16093451309</v>
       </c>
       <c r="J4" t="n">
         <v>84858.15940173084</v>
       </c>
       <c r="K4" t="n">
+        <v>84858.15940173084</v>
+      </c>
+      <c r="L4" t="n">
         <v>84858.15940173085</v>
       </c>
-      <c r="L4" t="n">
-        <v>84858.15940173088</v>
-      </c>
       <c r="M4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815702</v>
       </c>
       <c r="O4" t="n">
         <v>90964.01098815707</v>
       </c>
       <c r="P4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815708</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186634</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482646</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184213</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,13 +26500,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-86120.58910522729</v>
+        <v>-86125.00268309546</v>
       </c>
       <c r="C6" t="n">
-        <v>-86120.58910522735</v>
+        <v>-86125.00268309546</v>
       </c>
       <c r="D6" t="n">
-        <v>-127384.5297491065</v>
+        <v>-127388.8874992538</v>
       </c>
       <c r="E6" t="n">
-        <v>-858081.2361122211</v>
+        <v>-858309.9905346179</v>
       </c>
       <c r="F6" t="n">
-        <v>231157.736051412</v>
+        <v>230928.9816290132</v>
       </c>
       <c r="G6" t="n">
-        <v>183470.9532969479</v>
+        <v>183404.6759254036</v>
       </c>
       <c r="H6" t="n">
-        <v>221051.0625918221</v>
+        <v>220984.7852202776</v>
       </c>
       <c r="I6" t="n">
-        <v>193391.6836193457</v>
+        <v>193391.6836193455</v>
       </c>
       <c r="J6" t="n">
-        <v>190349.3065872009</v>
+        <v>190349.3065872011</v>
       </c>
       <c r="K6" t="n">
         <v>215758.7396089978</v>
       </c>
       <c r="L6" t="n">
-        <v>178178.6303141235</v>
+        <v>178178.6303141237</v>
       </c>
       <c r="M6" t="n">
-        <v>14344.13239840315</v>
+        <v>14344.13239840319</v>
       </c>
       <c r="N6" t="n">
-        <v>216512.2323911274</v>
+        <v>216512.2323911276</v>
       </c>
       <c r="O6" t="n">
-        <v>216512.2323911279</v>
+        <v>216512.2323911278</v>
       </c>
       <c r="P6" t="n">
-        <v>216512.2323911274</v>
+        <v>216512.2323911275</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790545</v>
+        <v>69.78465283790757</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810303</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951231</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790545</v>
+        <v>69.78465283790757</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-5.152189800167907e-14</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873761</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758428</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959714</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780177</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672113</v>
+        <v>84.22861846672097</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698753</v>
+        <v>90.83829126987501</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519096</v>
+        <v>84.46220888519069</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990534</v>
+        <v>7.64903505099009</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317066</v>
+        <v>75.62456067317034</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571901</v>
+        <v>11.4955890107565</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F19" t="n">
-        <v>11.49558901075594</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T22" t="n">
-        <v>11.49558901075702</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D25" t="n">
-        <v>11.49558901075707</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075605</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>46.72521440565365</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371169</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="I40" t="n">
-        <v>45.39291458738647</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>46.72521440565444</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810485</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
     </row>
     <row r="42">
@@ -30621,19 +30621,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>46.72521440565421</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371223</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="C46" t="n">
-        <v>55.47778196371101</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810498</v>
+        <v>45.39291458738838</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810484</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413282</v>
+        <v>0.2805413179413367</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366629</v>
+        <v>2.873093772366716</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993307</v>
+        <v>10.8155691599334</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362283</v>
+        <v>23.81059368362355</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207926</v>
+        <v>35.68590767208035</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310262</v>
+        <v>44.27152403102754</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396529</v>
+        <v>49.26060069396679</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356609</v>
+        <v>50.05768871356761</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328701</v>
+        <v>47.26805598328844</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661046</v>
+        <v>40.34219219661168</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783663</v>
+        <v>30.29530624783755</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313198</v>
+        <v>17.62255356313251</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588024</v>
+        <v>6.392835282588218</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288165</v>
+        <v>1.228069619288202</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530626</v>
+        <v>0.02244330543530694</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796457</v>
+        <v>0.1501028381796503</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840263</v>
+        <v>1.449677410840307</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693943</v>
+        <v>5.168014384694099</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906907</v>
+        <v>14.1814264790695</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710533</v>
+        <v>24.23831663710607</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264632</v>
+        <v>32.59140791264731</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665847</v>
+        <v>38.03263579665962</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655619</v>
+        <v>39.03924649655737</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847035</v>
+        <v>35.71328360847144</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449744</v>
+        <v>28.6630586344983</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447548</v>
+        <v>19.16049562447606</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767831</v>
+        <v>9.319542882768113</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608768</v>
+        <v>2.788094384608853</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890102</v>
+        <v>0.6050197731890287</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345115</v>
+        <v>0.009875186722345415</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125841177248682</v>
+        <v>0.1258411772486858</v>
       </c>
       <c r="H10" t="n">
-        <v>1.11884246681101</v>
+        <v>1.118842466811043</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078546</v>
+        <v>3.78438740307866</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481814</v>
+        <v>8.896971231482084</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489232</v>
+        <v>14.62045677489276</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477223</v>
+        <v>18.70915102477279</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908203</v>
+        <v>19.72617653908262</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115513</v>
+        <v>19.25713215115572</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875007</v>
+        <v>17.78707839875061</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287695</v>
+        <v>15.21991838287741</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852372</v>
+        <v>10.53748257852404</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381644</v>
+        <v>5.658276933381815</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233847</v>
+        <v>2.193068516233914</v>
       </c>
       <c r="T10" t="n">
-        <v>0.53768503006255</v>
+        <v>0.5376850300625663</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564478</v>
+        <v>0.006864064213564686</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573247</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019255</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573244</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546664</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086614</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>421.5121150100812</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597689</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794529</v>
+        <v>827.137011779454</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120761</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37075,10 +37075,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>825.9229012776177</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794536</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597722</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165747</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,16 +37236,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,10 +37798,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193733</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
